--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3606825.584321469</v>
+        <v>3604253.629803561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>65.63091822683509</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>330.6679898432817</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>88.25490562468525</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>304.270218931142</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>50.05665370612868</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>175.4001020413718</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>83.40252578334265</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,10 +1181,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.5467427872845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>168.5023926007952</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.376498265149</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>29.24923305751666</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.3101123257204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>19.72264368952139</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>20.13408744447714</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>41.55695577161148</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
-        <v>131.2944603446576</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.1230996349833</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>72.6041077643463</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468.3004633897571</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>854.9003034538789</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>609.5656957421922</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>320.3920853967602</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>320.3920853967602</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>320.3920853967602</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>320.3920853967602</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.21241430279</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.249897362378</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.984198755627</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1959461573831</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>375.2100413677755</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>361.2866373063665</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>245.45494510253</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838.715370239897</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>1469.752853299486</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="D8" t="n">
-        <v>1111.487154692735</v>
+        <v>684.3876867114525</v>
       </c>
       <c r="E8" t="n">
-        <v>725.6989020944909</v>
+        <v>298.5994341132082</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>291.6539333640048</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.181128500977</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.715370239897</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.715370239897</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5042,19 +5042,19 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>632.7243904253734</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253734</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.3099000622261</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3737171343192</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>747.3737171343192</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>599.4606235519261</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>452.5706760540157</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>285.3745767688957</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2417.418403724183</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2234.563569379087</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970974</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.750944035996</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y16" t="n">
-        <v>1097.958364892466</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.8386896933887</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9025067654818</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.4871545236284</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631473</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>632.3401009508116</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4270073684185</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>337.5370598705081</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>120.680066384834</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7557007032921</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2517.442480416598</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2517.442480416598</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.57599612053</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>920.6398131926233</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>770.5231737802875</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>622.6100801978944</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>475.720132699984</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
-        <v>308.5240334148639</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504503</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948075</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>117.682081788449</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>31.91821458107486</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>37.12601365260502</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.274541026374379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>145.8014946027475</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4813855737352</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.4141550350972</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
-        <v>9.00025250156628</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>144.801342562942</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132553</v>
@@ -26353,7 +26353,7 @@
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670396</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670452</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.59260167044</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670469</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
@@ -26448,16 +26448,16 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670468</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670466</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="O4" t="n">
+        <v>5067.592601670443</v>
+      </c>
+      <c r="P4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670438</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114427.826081223</v>
+        <v>-114427.8260812235</v>
       </c>
       <c r="C6" t="n">
-        <v>475540.053133321</v>
+        <v>475540.0531333211</v>
       </c>
       <c r="D6" t="n">
-        <v>475540.0531333215</v>
+        <v>475540.0531333213</v>
       </c>
       <c r="E6" t="n">
-        <v>-303952.2954700307</v>
+        <v>-303987.033395467</v>
       </c>
       <c r="F6" t="n">
-        <v>640420.4822876778</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="G6" t="n">
-        <v>640420.4822876778</v>
+        <v>640385.7443622419</v>
       </c>
       <c r="H6" t="n">
-        <v>640420.4822876781</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="I6" t="n">
-        <v>640420.4822876776</v>
+        <v>640385.7443622423</v>
       </c>
       <c r="J6" t="n">
-        <v>463997.2630950846</v>
+        <v>463962.5251696493</v>
       </c>
       <c r="K6" t="n">
-        <v>640420.4822876781</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="L6" t="n">
-        <v>640420.4822876778</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="M6" t="n">
-        <v>516211.9715796193</v>
+        <v>516177.2336541837</v>
       </c>
       <c r="N6" t="n">
-        <v>640420.4822876778</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="O6" t="n">
-        <v>640420.4822876778</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="P6" t="n">
-        <v>640420.4822876778</v>
+        <v>640385.7443622421</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>299.6419735441725</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>55.56994881277188</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>136.780199833399</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>19.65255383321517</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.4819576312212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>236.4663446304623</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>231.4759437003397</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.3816442374523</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y10" t="n">
-        <v>92.03791056481025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.144179666338522e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>153.972377511982</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>200.4500263280939</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939244</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>638.0665277849414</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,13 +35252,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>27.13475084531533</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36443,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>66.47561891376371</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>206.7892464195654</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>506.7248157016081</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
